--- a/data/prod_wheel.xlsx
+++ b/data/prod_wheel.xlsx
@@ -19,84 +19,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="20">
+  <si>
+    <t>grade_to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>og</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_A</t>
+  </si>
+  <si>
+    <t>GRADE_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>grade_from</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade_to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>og</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_A</t>
-  </si>
-  <si>
-    <t>GRADE_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE_G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -436,651 +436,651 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>399</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>648</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>698</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>797</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>748</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>598</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>349</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>299</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
       <c r="C12">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>698</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>797</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>748</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>598</v>
+        <v>797</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>328</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>429</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>574</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>615</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>1312</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>533</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
-        <v>617</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>706</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>794</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>309</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>397</v>
+        <v>706</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>353</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>574</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>697</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>656</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>6</v>
       </c>
       <c r="D33">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>410</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>328</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>287</v>
+        <v>656</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>788</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>875</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>8</v>
       </c>
       <c r="D40">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>7</v>
       </c>
       <c r="D41">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>526</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D43">
-        <v>394</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>656</v>
+        <v>875</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>738</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -1089,147 +1089,259 @@
         <v>7</v>
       </c>
       <c r="D47">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>246</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>246</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D50">
-        <v>328</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>529</v>
+        <v>738</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>617</v>
+        <v>779</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>706</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>6</v>
       </c>
       <c r="D54">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>353</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57">
-        <v>10</v>
-      </c>
-      <c r="D57">
+      <c r="C58">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
         <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
